--- a/Data/BD Phantom Chief.xlsx
+++ b/Data/BD Phantom Chief.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89e17b0b139fae16/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rivar\Documents\Cours\MasterCamp\MasterCamp\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51750570-FED3-42F2-950C-346E0660F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D285FA-F752-4877-A988-E3B4846F9BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{847E3817-D3DD-4A02-80DE-8BE26FD902E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{847E3817-D3DD-4A02-80DE-8BE26FD902E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>tomates,cerise,laitue,œufs durs,gruyère,olives noires,jambon blanc,vinangrette</t>
   </si>
   <si>
-    <t>200g,1u,4u,50g,50g,1u,épice</t>
-  </si>
-  <si>
     <t>Etape1 : Laver la laitue. Mettre les feuilles dans un saladier. ; Etape2 : Cuire les œufs. ; Etape3 : Ajouter sur la salade les dés de fromages, les tomates cerises, les dés de jambon, les olives noires et les œufs durs coupés en quartiers. ; Etape4 : ajouter la vinaigrette.</t>
   </si>
   <si>
@@ -467,13 +464,16 @@
   </si>
   <si>
     <t>casserole,Mixeur,louche,cuillère en bois</t>
+  </si>
+  <si>
+    <t>200g,100g,1u,4u,50g,50g,1u,épice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -852,25 +852,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F8CDD6-A075-4310-A7A1-DECAE5545030}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="148" style="1" customWidth="1"/>
-    <col min="4" max="4" width="71.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="219.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="219.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="76.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="76.109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,7 +902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -934,7 +934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="11.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -945,48 +945,48 @@
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="11.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
@@ -995,94 +995,94 @@
         <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="11.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="11.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="11.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
@@ -1091,33 +1091,33 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="11.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1126,27 +1126,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="11.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
@@ -1158,30 +1158,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="11.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1">
         <v>4</v>
@@ -1190,30 +1190,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="11.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="I11" s="1">
         <v>4</v>
@@ -1222,27 +1222,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="11.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I12" s="1">
         <v>4</v>
@@ -1251,123 +1251,123 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="11.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="1">
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="11.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="1">
         <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="11.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="11.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>16</v>
@@ -1376,33 +1376,33 @@
         <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="11.25" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" s="1">
         <v>6</v>
@@ -1411,60 +1411,60 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1">
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="1">
         <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="11.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" s="1">
         <v>8</v>
@@ -1473,27 +1473,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="11.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>16</v>
@@ -1505,30 +1505,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="11.25" customHeight="1">
+    <row r="21" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="I21" s="1">
         <v>4</v>
@@ -1537,30 +1537,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="11.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I22" s="1">
         <v>2</v>
@@ -1569,82 +1569,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="11.25"/>
-    <row r="24" spans="1:10" ht="11.25"/>
-    <row r="25" spans="1:10" ht="11.25"/>
-    <row r="26" spans="1:10" ht="11.25"/>
-    <row r="27" spans="1:10" ht="11.25"/>
-    <row r="28" spans="1:10" ht="11.25"/>
-    <row r="29" spans="1:10" ht="11.25"/>
-    <row r="30" spans="1:10" ht="11.25"/>
-    <row r="31" spans="1:10" ht="11.25"/>
-    <row r="32" spans="1:10" ht="11.25"/>
-    <row r="33" ht="11.25"/>
-    <row r="34" ht="11.25"/>
-    <row r="35" ht="11.25"/>
-    <row r="36" ht="11.25"/>
-    <row r="37" ht="11.25"/>
-    <row r="38" ht="11.25"/>
-    <row r="39" ht="11.25"/>
-    <row r="40" ht="11.25"/>
-    <row r="41" ht="11.25"/>
-    <row r="42" ht="11.25"/>
-    <row r="43" ht="11.25"/>
-    <row r="44" ht="11.25"/>
-    <row r="45" ht="11.25"/>
-    <row r="46" ht="11.25"/>
-    <row r="47" ht="11.25"/>
-    <row r="48" ht="11.25"/>
-    <row r="49" ht="11.25"/>
-    <row r="50" ht="11.25"/>
-    <row r="51" ht="11.25"/>
-    <row r="52" ht="11.25"/>
-    <row r="53" ht="11.25"/>
-    <row r="54" ht="11.25"/>
-    <row r="55" ht="11.25"/>
-    <row r="56" ht="11.25"/>
-    <row r="57" ht="11.25"/>
-    <row r="58" ht="11.25"/>
-    <row r="59" ht="11.25"/>
-    <row r="60" ht="11.25"/>
-    <row r="61" ht="11.25"/>
-    <row r="62" ht="11.25"/>
-    <row r="63" ht="11.25"/>
-    <row r="64" ht="11.25"/>
-    <row r="65" ht="11.25"/>
-    <row r="66" ht="11.25"/>
-    <row r="67" ht="11.25"/>
-    <row r="68" ht="11.25"/>
-    <row r="69" ht="11.25"/>
-    <row r="70" ht="11.25"/>
-    <row r="71" ht="11.25"/>
-    <row r="72" ht="11.25"/>
-    <row r="73" ht="11.25"/>
-    <row r="74" ht="11.25"/>
-    <row r="75" ht="11.25"/>
-    <row r="76" ht="11.25"/>
-    <row r="77" ht="11.25"/>
-    <row r="78" ht="11.25"/>
-    <row r="79" ht="11.25"/>
-    <row r="80" ht="11.25"/>
-    <row r="81" ht="11.25"/>
-    <row r="82" ht="11.25"/>
-    <row r="83" ht="11.25"/>
-    <row r="84" ht="11.25"/>
-    <row r="85" ht="11.25"/>
-    <row r="86" ht="11.25"/>
-    <row r="87" ht="11.25"/>
-    <row r="88" ht="11.25"/>
-    <row r="89" ht="11.25"/>
-    <row r="90" ht="11.25"/>
-    <row r="91" ht="11.25"/>
-    <row r="92" ht="11.25"/>
-    <row r="93" ht="11.25"/>
-    <row r="94" ht="11.25"/>
-    <row r="95" ht="11.25"/>
-    <row r="96" ht="11.25"/>
-    <row r="97" ht="11.25"/>
-    <row r="98" ht="11.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/BD Phantom Chief.xlsx
+++ b/Data/BD Phantom Chief.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89e17b0b139fae16/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rivar\Documents\Cours\MasterCamp\Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA69EE18-069B-4699-B1EB-9CB1B02FB6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CFE1D0-7925-4142-B144-594BB25F14E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{847E3817-D3DD-4A02-80DE-8BE26FD902E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{847E3817-D3DD-4A02-80DE-8BE26FD902E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>Etape 1 : Dans un saladier verser la moitié de la farine, puis rajouter les oeufs un à un, rajouter ensuite un peu de lait puis de la farine puis à nouveau du lait et ainsi de suite. ; Etape 2 : Enfin rajouter l'huile et la bière. ; Etape 3 : Laisser reposer 1 heure, votre pâte est prête. ; Etape 4 : Cuire les crepes</t>
   </si>
   <si>
-    <t>10min,1,min,60min,30min</t>
-  </si>
-  <si>
     <t>louche,saladier,poêle à crêpes,cuillère en bois</t>
   </si>
   <si>
@@ -467,13 +464,16 @@
   </si>
   <si>
     <t>casserole,Mixeur,louche,cuillère en bois</t>
+  </si>
+  <si>
+    <t>10min,1min,60min,30min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,7 +561,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -857,25 +857,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F8CDD6-A075-4310-A7A1-DECAE5545030}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="71.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="219.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="71.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="219.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="76.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="76.109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,7 +907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="11.25">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -939,7 +939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="11.25">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -971,7 +971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="11.25">
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="11.25">
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1020,10 +1020,10 @@
         <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>24</v>
@@ -1032,30 +1032,30 @@
         <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="11.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>24</v>
@@ -1064,30 +1064,30 @@
         <v>2</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="11.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
@@ -1099,27 +1099,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="11.25">
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>24</v>
@@ -1131,27 +1131,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="11.25">
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>16</v>
@@ -1163,27 +1163,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="11.25">
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>24</v>
@@ -1195,27 +1195,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="11.25">
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>24</v>
@@ -1227,30 +1227,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="11.25">
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="I12" s="2">
         <v>4</v>
@@ -1259,27 +1259,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="11.25">
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>24</v>
@@ -1291,27 +1291,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="11.25">
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>24</v>
@@ -1320,30 +1320,30 @@
         <v>4</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="11.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>24</v>
@@ -1352,30 +1352,30 @@
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" ht="11.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>16</v>
@@ -1384,33 +1384,33 @@
         <v>4</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17" s="2">
         <v>6</v>
@@ -1419,27 +1419,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>24</v>
@@ -1451,27 +1451,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" ht="11.25">
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>24</v>
@@ -1483,27 +1483,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" ht="11.25">
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
@@ -1515,27 +1515,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1">
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>24</v>
@@ -1547,27 +1547,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" ht="11.25">
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>24</v>
@@ -1579,82 +1579,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="11.25"/>
-    <row r="24" spans="1:10" ht="11.25"/>
-    <row r="25" spans="1:10" ht="11.25"/>
-    <row r="26" spans="1:10" ht="11.25"/>
-    <row r="27" spans="1:10" ht="11.25"/>
-    <row r="28" spans="1:10" ht="11.25"/>
-    <row r="29" spans="1:10" ht="11.25"/>
-    <row r="30" spans="1:10" ht="11.25"/>
-    <row r="31" spans="1:10" ht="11.25"/>
-    <row r="32" spans="1:10" ht="11.25"/>
-    <row r="33" ht="11.25"/>
-    <row r="34" ht="11.25"/>
-    <row r="35" ht="11.25"/>
-    <row r="36" ht="11.25"/>
-    <row r="37" ht="11.25"/>
-    <row r="38" ht="11.25"/>
-    <row r="39" ht="11.25"/>
-    <row r="40" ht="11.25"/>
-    <row r="41" ht="11.25"/>
-    <row r="42" ht="11.25"/>
-    <row r="43" ht="11.25"/>
-    <row r="44" ht="11.25"/>
-    <row r="45" ht="11.25"/>
-    <row r="46" ht="11.25"/>
-    <row r="47" ht="11.25"/>
-    <row r="48" ht="11.25"/>
-    <row r="49" ht="11.25"/>
-    <row r="50" ht="11.25"/>
-    <row r="51" ht="11.25"/>
-    <row r="52" ht="11.25"/>
-    <row r="53" ht="11.25"/>
-    <row r="54" ht="11.25"/>
-    <row r="55" ht="11.25"/>
-    <row r="56" ht="11.25"/>
-    <row r="57" ht="11.25"/>
-    <row r="58" ht="11.25"/>
-    <row r="59" ht="11.25"/>
-    <row r="60" ht="11.25"/>
-    <row r="61" ht="11.25"/>
-    <row r="62" ht="11.25"/>
-    <row r="63" ht="11.25"/>
-    <row r="64" ht="11.25"/>
-    <row r="65" ht="11.25"/>
-    <row r="66" ht="11.25"/>
-    <row r="67" ht="11.25"/>
-    <row r="68" ht="11.25"/>
-    <row r="69" ht="11.25"/>
-    <row r="70" ht="11.25"/>
-    <row r="71" ht="11.25"/>
-    <row r="72" ht="11.25"/>
-    <row r="73" ht="11.25"/>
-    <row r="74" ht="11.25"/>
-    <row r="75" ht="11.25"/>
-    <row r="76" ht="11.25"/>
-    <row r="77" ht="11.25"/>
-    <row r="78" ht="11.25"/>
-    <row r="79" ht="11.25"/>
-    <row r="80" ht="11.25"/>
-    <row r="81" ht="11.25"/>
-    <row r="82" ht="11.25"/>
-    <row r="83" ht="11.25"/>
-    <row r="84" ht="11.25"/>
-    <row r="85" ht="11.25"/>
-    <row r="86" ht="11.25"/>
-    <row r="87" ht="11.25"/>
-    <row r="88" ht="11.25"/>
-    <row r="89" ht="11.25"/>
-    <row r="90" ht="11.25"/>
-    <row r="91" ht="11.25"/>
-    <row r="92" ht="11.25"/>
-    <row r="93" ht="11.25"/>
-    <row r="94" ht="11.25"/>
-    <row r="95" ht="11.25"/>
-    <row r="96" ht="11.25"/>
-    <row r="97" ht="11.25"/>
-    <row r="98" ht="11.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/BD Phantom Chief.xlsx
+++ b/Data/BD Phantom Chief.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rivar\Documents\Cours\MasterCamp\Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emmie KIEFFER\Documents\GitHub\MasterCamp\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CFE1D0-7925-4142-B144-594BB25F14E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59987D3B-990E-4C2B-A382-A6CA11CAE8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{847E3817-D3DD-4A02-80DE-8BE26FD902E0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{847E3817-D3DD-4A02-80DE-8BE26FD902E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="145">
   <si>
     <t>Id</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>10min,1min,60min,30min</t>
+  </si>
+  <si>
+    <t>presenceViande</t>
   </si>
 </sst>
 </file>
@@ -857,25 +860,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F8CDD6-A075-4310-A7A1-DECAE5545030}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="71.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="219.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="115" style="1" customWidth="1"/>
+    <col min="4" max="4" width="71.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="219.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="76.109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="76.08984375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,8 +909,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -938,8 +944,11 @@
       <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -970,8 +979,11 @@
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1002,8 +1014,11 @@
       <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1034,8 +1049,11 @@
       <c r="J5" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1066,8 +1084,11 @@
       <c r="J6" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1098,8 +1119,11 @@
       <c r="J7" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1130,8 +1154,11 @@
       <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1162,8 +1189,11 @@
       <c r="J9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1194,8 +1224,11 @@
       <c r="J10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1226,8 +1259,11 @@
       <c r="J11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1258,8 +1294,11 @@
       <c r="J12" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1290,8 +1329,11 @@
       <c r="J13" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1322,8 +1364,11 @@
       <c r="J14" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1354,8 +1399,11 @@
       <c r="J15" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1386,8 +1434,11 @@
       <c r="J16" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1418,8 +1469,11 @@
       <c r="J17" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1450,8 +1504,11 @@
       <c r="J18" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1482,8 +1539,11 @@
       <c r="J19" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1514,8 +1574,11 @@
       <c r="J20" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1546,8 +1609,11 @@
       <c r="J21" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1577,6 +1643,9 @@
       </c>
       <c r="J22" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/BD Phantom Chief.xlsx
+++ b/Data/BD Phantom Chief.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emmie KIEFFER\Documents\GitHub\MasterCamp\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rivar\Documents\Cours\MasterCamp\Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59987D3B-990E-4C2B-A382-A6CA11CAE8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F0E1CB-D024-4819-9583-01A17D7F7CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{847E3817-D3DD-4A02-80DE-8BE26FD902E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{847E3817-D3DD-4A02-80DE-8BE26FD902E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="214">
   <si>
     <t>Id</t>
   </si>
@@ -91,6 +91,9 @@
     <t>Plat</t>
   </si>
   <si>
+    <t>https://assets.afcdn.com/recipe/20200408/109520_w1024h1024c1cx1866cy2800.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salade composée </t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>Entrée,plat</t>
   </si>
   <si>
+    <t>https://assets.afcdn.com/recipe/20200907/113936_w1024h1024c1cx2750cy1833.jpg</t>
+  </si>
+  <si>
     <t>Tiramisu</t>
   </si>
   <si>
@@ -136,6 +142,9 @@
     <t>Dessert</t>
   </si>
   <si>
+    <t>https://www.galbani.fr/wp-content/uploads/2018/10/mon-tiramisu.jpg</t>
+  </si>
+  <si>
     <t>Crêpe</t>
   </si>
   <si>
@@ -154,6 +163,9 @@
     <t>Entrée,plat,dessert</t>
   </si>
   <si>
+    <t>https://www.hervecuisine.com/wp-content/uploads/2010/11/recette-crepes.jpg</t>
+  </si>
+  <si>
     <t>Omelette aux pommes de terre et lardons</t>
   </si>
   <si>
@@ -175,6 +187,9 @@
     <t>Entrée</t>
   </si>
   <si>
+    <t>https://assets.afcdn.com/recipe/20200220/107931_w1024h576c1cx2880cy1920.jpg</t>
+  </si>
+  <si>
     <t>Panacotta aux fruits rouges</t>
   </si>
   <si>
@@ -193,6 +208,9 @@
     <t>cuillère en bois,saladier,mixeur,réfrigérateur,balance de cuisine</t>
   </si>
   <si>
+    <t>https://wordpress.potagercity.fr/wp-content/uploads/2019/06/PANNACOTTA_framboise.jpg</t>
+  </si>
+  <si>
     <t>Burger</t>
   </si>
   <si>
@@ -211,6 +229,9 @@
     <t>four,casserole,couvercle,saladier</t>
   </si>
   <si>
+    <t>https://www.umamiburgerparis.com/media/images/minigal/02.jpg</t>
+  </si>
+  <si>
     <t>Gratin de pommes de terre aux lardons</t>
   </si>
   <si>
@@ -229,6 +250,9 @@
     <t>Plat à gratin,casserole,four,poêle</t>
   </si>
   <si>
+    <t>https://res.cloudinary.com/hv9ssmzrz/image/fetch/c_fill,f_auto,h_488,q_auto,w_650/https://s3-eu-west-1.amazonaws.com/images-ca-1-0-1-eu/recipe_photos/original/163499/Gratin_2Bpdt-lardons-camembert5.jpg</t>
+  </si>
+  <si>
     <t>Pâtes à la carbonara</t>
   </si>
   <si>
@@ -247,6 +271,9 @@
     <t>passoires,poêles,couteau,saladier</t>
   </si>
   <si>
+    <t>https://www.finedininglovers.fr/sites/g/files/xknfdk1291/files/styles/recipes_1200_800_fallback/public/2021-04/pates%20carbonara%20iStock.jpg?itok=ixw8iFgx</t>
+  </si>
+  <si>
     <t>Bœuf bourguignon</t>
   </si>
   <si>
@@ -265,6 +292,9 @@
     <t>couteau,cocotte,poêles,four</t>
   </si>
   <si>
+    <t>https://cooking-chef.sa.metacdn.com/sites/default/files/recettes/boeuf-bourguignon-recette_4x3.jpg</t>
+  </si>
+  <si>
     <t>Chili con carne</t>
   </si>
   <si>
@@ -286,6 +316,9 @@
     <t>Difficile</t>
   </si>
   <si>
+    <t>https://assets.afcdn.com/recipe/20211222/126214_w1024h768c1cx1124cy721.webp</t>
+  </si>
+  <si>
     <t>Crumble aux cerises</t>
   </si>
   <si>
@@ -304,6 +337,9 @@
     <t>moule à tarte,saladier,four,dénoyauteur,balance de cuisine</t>
   </si>
   <si>
+    <t>https://www.platetrecette.fr/wp-content/uploads/2020/06/Crumble-aux-cerises.jpg</t>
+  </si>
+  <si>
     <t>Tzatziki de concombre</t>
   </si>
   <si>
@@ -322,6 +358,9 @@
     <t>bol,cuillère en bois,dénoyauteur</t>
   </si>
   <si>
+    <t>https://assets.afcdn.com/recipe/20130924/36404_w1024h1024c1cx1368cy1824.webp</t>
+  </si>
+  <si>
     <t>Pancakes</t>
   </si>
   <si>
@@ -340,6 +379,9 @@
     <t>saladier,fouet,cuillère en bois, louche</t>
   </si>
   <si>
+    <t>https://img.cuisineaz.com/660x660/2018/03/19/i136714-recette-simple-de-pancakes.jpeg</t>
+  </si>
+  <si>
     <t>Oeufs mimosa</t>
   </si>
   <si>
@@ -358,6 +400,9 @@
     <t>couteau,four,fourchette,cuillère en bois</t>
   </si>
   <si>
+    <t>https://img.cuisineaz.com/660x660/2015/05/05/i18249-oeufs-mimosa-au-thon-de-ma-grand-mere.jpg</t>
+  </si>
+  <si>
     <t>Couscous</t>
   </si>
   <si>
@@ -376,6 +421,9 @@
     <t>couteau,cocotte,pôele,cuillère en bois</t>
   </si>
   <si>
+    <t>https://cdn.goody.buzz/media/20190101173734/coucous-marocain-800x600.jpg</t>
+  </si>
+  <si>
     <t>Gratin aux fraises et au melon</t>
   </si>
   <si>
@@ -394,6 +442,9 @@
     <t>Plat à gratin,couteau,four,Fouet cuisine,saladier</t>
   </si>
   <si>
+    <t>https://res.cloudinary.com/hv9ssmzrz/image/fetch/c_fill,f_auto,h_600,q_auto,w_800/https://s3-eu-west-1.amazonaws.com/images-ca-1-0-1-eu/recipe_photos/original/124836/gratin_2525201.jpg</t>
+  </si>
+  <si>
     <t>Salade de pomme de terre</t>
   </si>
   <si>
@@ -412,6 +463,9 @@
     <t>couteau,cuillère en bois,frigo</t>
   </si>
   <si>
+    <t>https://assets.afcdn.com/recipe/20200831/113629_w1024h576c1cx960cy540.webp</t>
+  </si>
+  <si>
     <t>Tagliatelles au saumon</t>
   </si>
   <si>
@@ -430,6 +484,9 @@
     <t>casserole,sauteuse,passoire,plat à gratin</t>
   </si>
   <si>
+    <t>https://assets.afcdn.com/recipe/20170105/23216_w1024h768c1cx2049cy1728.jpg</t>
+  </si>
+  <si>
     <t>Croque monsieur hivernal</t>
   </si>
   <si>
@@ -448,6 +505,9 @@
     <t>dénoyauteur,four,pôele</t>
   </si>
   <si>
+    <t>https://assets.afcdn.com/recipe/20201013/114766_w1024h768c1cx1472cy3822.webp</t>
+  </si>
+  <si>
     <t>Risotto</t>
   </si>
   <si>
@@ -466,17 +526,164 @@
     <t>casserole,Mixeur,louche,cuillère en bois</t>
   </si>
   <si>
+    <t>https://assets.afcdn.com/recipe/20160819/49595_w1024h576c1cx2000cy3000.jpg</t>
+  </si>
+  <si>
+    <t>Smoothie</t>
+  </si>
+  <si>
+    <t>banane,pomme,orange,crème fraîche,eau,kiwi</t>
+  </si>
+  <si>
+    <t>2u,3u,1u,20g,20g,2u</t>
+  </si>
+  <si>
+    <t>Etape 1 : Pelez les bananes, les pommes et les kiwis. ; Etape 2 : Coupez les bananes en petites rondelles, ainsi que les pommes et les kiwis, mettez-les dans le blender. ; Etape 3 : Ajoutez le jus de l'orange, la cuillère de crème fraîche et une cuillère à soupe d'eau. ; Etape 4 : Mixez le tout dans le blender à puissance maximum.</t>
+  </si>
+  <si>
+    <t>10min,10min,3min,5min</t>
+  </si>
+  <si>
+    <t>blender</t>
+  </si>
+  <si>
+    <t>https://www.conservation-nature.fr/wp-content/uploads/2020/02/smoothies.jpg</t>
+  </si>
+  <si>
+    <t>Curry végétarien</t>
+  </si>
+  <si>
+    <t>carrote,courgette,ail,concentré de tomates,cumin,basilic,poivre,sel,échalote,pomme de terre,crème coco,curry</t>
+  </si>
+  <si>
+    <t>5u,2u,3u,2u,épice,épice,épice,sel,8u,3u,30g,épice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etape 1 : Débiter les carottes en fines tranches et la patate en petits morceaux. Découper les courgettes en quarts de rondelles tout en conservant la peau. ; Etape 2 : Détailler les échalotes et l'ail et les faire dorer dans une grande sauteuse avec un peu d'huile. Ajouter les légumes, réduire le feu et couvrir. ; Etape 3 : En parallèle, dans un saladier, mélanger la crème de coco, le concentré de tomates et la pâte de curry avec le jus des citrons verts. Ajouter le piment et le basilic moulus, le cumin, et napper les légumes de ce mélange bien homogène. Ajouter 1/2 verre d'eau. ; Etape 4 : Poivrer et saler à discrétion. ; Etape 5 : Bien laisser mijoter sous couvercle à feu minimum. </t>
+  </si>
+  <si>
+    <t>10min,10min,3min,1min,20min</t>
+  </si>
+  <si>
+    <t>poêle,couteau,couvercle,pinceau</t>
+  </si>
+  <si>
+    <t>https://assets.afcdn.com/recipe/20150331/51908_w1024h768c1cx177cy112.jpg</t>
+  </si>
+  <si>
+    <t>Hamburger végétarien</t>
+  </si>
+  <si>
+    <t>oignon,farine,sel,poivre,cumin,curry,petits pois,maïs,oeuf,chapelure,salade,fromage,mayonnaise,ketchup,pain burger,cornichons</t>
+  </si>
+  <si>
+    <t>1u,25g,épice,épice,épice,épice,200g,200g,1u,100g,4u,200g,4u,4u,4u,10u</t>
+  </si>
+  <si>
+    <t>Etape 1 : Passez au mixeur les petits pois, le maïs, l’oignon (coupé en 4 ) et l’oeuf. ; Etape 2 : Puis ajoutez au mélange les épices, la farine et de la chapelure jusqu'à l’obtention d’une pâte épaisse (pour pouvoir former des galettes).  ; Etape 3 : Formez des galettes dans une poêle chaude avec un peu d’huile. Laissez cuire environ 15 mn à feux moyen. Avant de les retirer du feux, déposez les tranches de fromage pour qu’elles fondent un peu.  ; Etape 4 : Vous pouvez ensuite composer vos hamburgers avec le pain la salades, les tranches de tomates, les sauces et la galette.  ; Etape 5 : Vous pouvez également passer les pains à la poêle</t>
+  </si>
+  <si>
+    <t>3min,5min,15min,5min,2min</t>
+  </si>
+  <si>
+    <t>blender,pôele,balance</t>
+  </si>
+  <si>
+    <t>https://assets.afcdn.com/recipe/20190320/89715_w1024h1024c1cx2808cy1872.jpg</t>
+  </si>
+  <si>
+    <t>Gaspacho</t>
+  </si>
+  <si>
+    <t>ail,huile d'olive,vinaigre,sucre,tabasco,tomate,poivron,concombre,échalote,sel,poivre</t>
+  </si>
+  <si>
+    <t>1u,2u,1u,20g,épice,800g,80g,1u,1u,épice,épice</t>
+  </si>
+  <si>
+    <t>Etape 1 : Versez tous les ingrédients coupés en gros morceaux dans la cuve de votre Cooking Chef. Mixez en augmentant progressivement la vitesse avec le blender sur la sortie ultra rapide / 40 sec / 0 °C / vit. 1 à max.</t>
+  </si>
+  <si>
+    <t>https://assets.afcdn.com/recipe/20130823/35057_w1024h768c1cx2034cy2034.jpg</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>oignon,aubergine,courgette,tomate,riz,huile d'olive,chili,poivre,sel,poivron</t>
+  </si>
+  <si>
+    <t>3u,200g,2u,100g,100g,3u,épice,épice,épice,200g</t>
+  </si>
+  <si>
+    <t>Etape 1 : Couper les légumes en gros dés. ; Etape 2 : Mettre un fond d'eau dans une poêle (de préférence à fond plat) et y laisser fondre les légumes, avec un couvercle, jusqu'à l'évaporation de l'eau. ; Etape 3 : Ajouter l'huile d'olive, et faire revenir les poivrons, les oignons, les aubergines et les courgettes. ; Etape 4 : Mélanger le riz non cuit, et remettre le couvercle en remuant de temps en temps. ; Etape 5 : Quand le riz commence à être tendre, ajouter les tomates, le piment, le poivre, le sel et les herbes. Laisser saisir à feu vif. ; Etape 6 : Dans la recette initiale, les espagnols mettent beaucoup plus d'huile et ajoutent des moules et des morceaux de jambon ou de poulet en même temps que les tomates, un peu comme pour une paëlla.</t>
+  </si>
+  <si>
+    <t>10min,1min,1min,1min,20min,2min</t>
+  </si>
+  <si>
+    <t>poêle,couteau,couvercle,cuillère en bois</t>
+  </si>
+  <si>
+    <t>https://www.julieandrieu.com/media/cache/web_recipe_detail/uploads/recettes/vegetarien/ratatouille-comme-a-nice.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riz cantonnais </t>
+  </si>
+  <si>
+    <t>riz,carotte,oignon,huile,sel,oeufs</t>
+  </si>
+  <si>
+    <t>300g,3u,1u,1u,épice,3u</t>
+  </si>
+  <si>
+    <t>Etape 1 : Faire cuire le riz à la vapeur ou dans de l'eau. Laissez refroidir ; Etape 2 : Coupez les carottes en petits dès et les faire cuire à la vapeur ou dans de l'eau. ; Etape 3: Dans un wok faire revenir dans l'huile (1 cuillere à soupe) les oignons coupées en petits dès fins, les dès de carottes et les oeufs en omelette ; Etape 4: Séparez bien les oeufs durant la cuisson pour qu'ils se coupents en petits dès ; Etape 5 : incorporez les légumes avec le riz et faire revenir le tout dans le wok (avec 2 cuilleres à soupe d'huile)pendant 5 minutes et salez à votre convenance</t>
+  </si>
+  <si>
+    <t>15min,15min,5min,3min,5min</t>
+  </si>
+  <si>
+    <t>passoires,wok,pôele,blender</t>
+  </si>
+  <si>
+    <t>https://assets.afcdn.com/recipe/20160517/45721_w1024h768c1cx2000cy3000.jpg</t>
+  </si>
+  <si>
+    <t>Moelleux au chocolat</t>
+  </si>
+  <si>
+    <t>chocolat,beurre,sucre,farine,oeufs</t>
+  </si>
+  <si>
+    <t>250g,175g,125g,75g,5u</t>
+  </si>
+  <si>
+    <t>Etape 1 : Faire fondre le chocolat. ; Etape 2 : Ajouter le beurre en morceaux peu à peu et l'incorporer pour obtenir un crème bien lisse. ; Etape 3 : Mettre la farine et le sucre glace dans un saladier. Ajouter les oeufs entiers et mélanger jusqu'à obtention d'une émulsion homogène. ; Etape 4 : Verser le mélange chocolat-beurre sur cette préparation. Mélanger. ; Etape 5 : Beurrer et fariner 6 moules individuels ou un grand moule. ; Etape 6 : Verser la préparation et mettre à four chaud (200°C) - 10 min pour les petits gâteaux, 15 pour le grand. ; Etape 7 : Servir tiède avec une crème anglaise (le centre doit être coulant) ou servir froid nappé de ganache au chocolat.</t>
+  </si>
+  <si>
+    <t>5min,2min,5min,5min,5min,10min,3min</t>
+  </si>
+  <si>
+    <t>casserole,cuillère en bois,four</t>
+  </si>
+  <si>
+    <t>https://assets.afcdn.com/recipe/20171019/73301_w1024h1024c1cx1800cy1200.webp</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>1min</t>
+  </si>
+  <si>
     <t>10min,1min,60min,30min</t>
-  </si>
-  <si>
-    <t>presenceViande</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +702,14 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -535,10 +750,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -546,8 +762,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -860,25 +1079,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F8CDD6-A075-4310-A7A1-DECAE5545030}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="115" style="1" customWidth="1"/>
-    <col min="4" max="4" width="71.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="219.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="71.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="219.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="76.08984375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.453125" style="1"/>
+    <col min="7" max="7" width="76.109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.44140625" style="1"/>
+    <col min="10" max="10" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="196.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,10 +1132,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -944,171 +1166,171 @@
       <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2">
         <v>4</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2">
         <v>4</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2">
         <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2">
         <v>2</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
@@ -1117,36 +1339,36 @@
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -1154,31 +1376,31 @@
       <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>16</v>
@@ -1189,34 +1411,34 @@
       <c r="J9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" s="2">
         <v>4</v>
@@ -1224,34 +1446,34 @@
       <c r="J10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I11" s="2">
         <v>4</v>
@@ -1259,34 +1481,34 @@
       <c r="J11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I12" s="2">
         <v>4</v>
@@ -1294,136 +1516,136 @@
       <c r="J12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I13" s="2">
         <v>4</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" s="2">
         <v>4</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I15" s="2">
         <v>2</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>16</v>
@@ -1432,36 +1654,36 @@
         <v>4</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I17" s="2">
         <v>6</v>
@@ -1469,69 +1691,69 @@
       <c r="J17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I18" s="2">
         <v>6</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I19" s="2">
         <v>8</v>
@@ -1539,31 +1761,31 @@
       <c r="J19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
@@ -1574,34 +1796,34 @@
       <c r="J20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I21" s="2">
         <v>4</v>
@@ -1609,34 +1831,34 @@
       <c r="J21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I22" s="2">
         <v>2</v>
@@ -1644,12 +1866,290 @@
       <c r="J22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
+      <c r="K22" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1">
+        <v>4</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1">
+        <v>4</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="1">
+        <v>6</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{9670CBEF-ADA9-4FED-81D2-9D5992F25ABE}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{ABE411E9-B0CD-4D54-A9C3-D6239F40B621}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{94DFD6B6-E4B5-4CA6-B9BE-33BFC155E993}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{8D5CB22B-DE14-4B9D-8DC5-78CC4D0483FF}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{386D476F-B507-4F18-BA22-2E7456887871}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{68CA035C-86A6-48F4-B649-61F41FF58B92}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{F8AA9747-B080-4922-B6CE-FA40D0E2A5FB}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{F4813BD6-9F44-44A5-B0D1-A996EDE3C0CC}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{3F872EE1-2E3D-41D9-8588-C4909A543D26}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{E4ADC2BF-E6D5-4498-9A18-C3DDC368AD49}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{9373846F-99BC-4893-B139-C606A5FEE03D}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{376DF0EF-BB80-425A-AFA2-5FB6C0E16421}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{160B5560-B465-4754-976A-4C88A881E764}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{22617B80-DA5C-4D9A-A789-78C3D0871CE2}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{0D93A601-2EFB-40DB-9C04-E2AB53B6E676}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{BAA9EB1F-3FA2-44E5-B122-3D9B80E0E587}"/>
+    <hyperlink ref="K18" r:id="rId17" xr:uid="{235BC43B-4A91-4C5C-8839-F678BF812A0E}"/>
+    <hyperlink ref="K19" r:id="rId18" xr:uid="{CFC93BBD-AB42-4220-BB3C-FB3944D8F458}"/>
+    <hyperlink ref="K20" r:id="rId19" xr:uid="{1A1FF6D6-5742-4893-852B-479919D58627}"/>
+    <hyperlink ref="K21" r:id="rId20" xr:uid="{774EF895-DB2F-4296-892C-A2C1B25DA702}"/>
+    <hyperlink ref="K22" r:id="rId21" xr:uid="{727BD36A-6753-4C86-9EF9-FC2DAEADB337}"/>
+    <hyperlink ref="K23" r:id="rId22" xr:uid="{D24568B4-F4F4-4354-8A33-556FBBE1BDB6}"/>
+    <hyperlink ref="K24" r:id="rId23" xr:uid="{AD7AB02C-8D1A-43B7-8A1E-BE3DDA080246}"/>
+    <hyperlink ref="K25" r:id="rId24" xr:uid="{6E74862E-6245-4092-B37F-0A0D8DF649C5}"/>
+    <hyperlink ref="K26" r:id="rId25" xr:uid="{7F9D7E82-96AE-4071-AD53-705636083755}"/>
+    <hyperlink ref="K27" r:id="rId26" xr:uid="{99525ED2-1E20-465A-AE79-274290B8AC23}"/>
+    <hyperlink ref="K28" r:id="rId27" xr:uid="{C6DE291C-7E03-49AD-A6EF-C0A9CA34E271}"/>
+    <hyperlink ref="K29" r:id="rId28" xr:uid="{2331FCBD-1C52-479C-B080-E2BFCF0E11B3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>